--- a/캡디 챗봇 학습 및 일정 정리.xlsx
+++ b/캡디 챗봇 학습 및 일정 정리.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f2d08db804201e11/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="531" documentId="8_{D44EC5C1-7C98-428F-9F29-5F7ED524E217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BF72EE8-AE45-4CAA-95CA-D2E3866902AB}"/>
+  <xr:revisionPtr revIDLastSave="752" documentId="8_{D44EC5C1-7C98-428F-9F29-5F7ED524E217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C8C0B26-8C80-40F5-80DB-24528B033A82}"/>
   <bookViews>
-    <workbookView xWindow="6684" yWindow="1428" windowWidth="18492" windowHeight="10368" firstSheet="1" activeTab="6" xr2:uid="{D89535E3-7C67-4DA3-84A7-C88CA1532653}"/>
+    <workbookView xWindow="-11160" yWindow="720" windowWidth="18492" windowHeight="10368" firstSheet="24" activeTab="30" xr2:uid="{D89535E3-7C67-4DA3-84A7-C88CA1532653}"/>
   </bookViews>
   <sheets>
     <sheet name="개발 일정" sheetId="4" r:id="rId1"/>
     <sheet name="인사(04.01)" sheetId="1" r:id="rId2"/>
     <sheet name="나쁜말(비속어)" sheetId="2" r:id="rId3"/>
     <sheet name="금연방법(04.01)" sheetId="7" r:id="rId4"/>
-    <sheet name="금연 도움" sheetId="3" r:id="rId5"/>
+    <sheet name="공감(쓰레기통 및 기타)" sheetId="3" r:id="rId5"/>
     <sheet name="음식관련" sheetId="23" r:id="rId6"/>
     <sheet name="간식관련" sheetId="24" r:id="rId7"/>
     <sheet name="금연시작일추천" sheetId="25" r:id="rId8"/>
@@ -43,6 +43,7 @@
     <sheet name="금단 불면증" sheetId="21" r:id="rId28"/>
     <sheet name="금단 과민성" sheetId="22" r:id="rId29"/>
     <sheet name="공감" sheetId="6" r:id="rId30"/>
+    <sheet name="의사소통" sheetId="31" r:id="rId31"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="364">
   <si>
     <t>프로젝트 개발일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -303,16 +304,7 @@
     <t>흡연흡연흡연흡연흡연흡연</t>
   </si>
   <si>
-    <t>히드러</t>
-  </si>
-  <si>
-    <t>힘드러</t>
-  </si>
-  <si>
-    <t>히ㅏㅁ들어</t>
-  </si>
-  <si>
-    <t>히들어</t>
+    <t>음식관련</t>
   </si>
   <si>
     <t>금연에 도움을 주는 음식이 뭐야?</t>
@@ -1079,6 +1071,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>금연부작용</t>
+  </si>
+  <si>
     <t>금연을하고 민감해졌어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1103,6 +1098,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>스트래칭을 해보세요</t>
+  </si>
+  <si>
     <t>금연 힘들어 상담해줘</t>
   </si>
   <si>
@@ -1118,13 +1116,285 @@
   </si>
   <si>
     <t>응애 담배마려워 상담해줘</t>
+  </si>
+  <si>
+    <t>미치셨나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의사소통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점메추</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어쩔티비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저쩔티비~ 안물~ 안굼~ ㅋㅋㄹㅃㅃ ~킹받죠!!~!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠이와</t>
+  </si>
+  <si>
+    <t>금연 힘드러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오히려 좋아 이때 정신 차리고 하면 될거야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 주무세요</t>
+  </si>
+  <si>
+    <t>솔마루 ㄱ?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저메추</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼겹살 ㄱㄱ?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔이 아파</t>
+  </si>
+  <si>
+    <t>ㅋㅋㄹㅃㅃ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운동부족이 아닐까요?</t>
+  </si>
+  <si>
+    <t>킹받네;;;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배가 아파</t>
+  </si>
+  <si>
+    <t>병원을 가세요</t>
+  </si>
+  <si>
+    <t>야</t>
+  </si>
+  <si>
+    <t>뭐</t>
+  </si>
+  <si>
+    <t xml:space="preserve">담배피면 그만이야 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>까치야</t>
+  </si>
+  <si>
+    <t>건강 안좋아지면 그만이야 
+돈 없어지면 그만이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜 부르니?</t>
+  </si>
+  <si>
+    <t>금연하는 나 ㄹㅈㄷ?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너는 혹시 담배 피니?</t>
+  </si>
+  <si>
+    <t>응 ㅇㅈ ㄹㄱㄴ~!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무야호~!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금연 무야호~!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 챗봇이라 담배를 필 수가 없어요</t>
+  </si>
+  <si>
+    <t>사람일수도?</t>
+  </si>
+  <si>
+    <t>피곤해</t>
+  </si>
+  <si>
+    <t>학교가기싫어</t>
+  </si>
+  <si>
+    <t>나도 심심해요</t>
+  </si>
+  <si>
+    <t>싫은데요?</t>
+  </si>
+  <si>
+    <t>너 뭐하니?</t>
+  </si>
+  <si>
+    <t>아무것도 안하는데요?</t>
+  </si>
+  <si>
+    <t>너가 좋아하는 음식이 뭐니?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hello , </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="새굴림"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , 안녕</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 음식을 먹을 수 없어요</t>
+  </si>
+  <si>
+    <t>Hi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금연 꼭 해야하냐?</t>
+  </si>
+  <si>
+    <t>오래살고 싶으면 해야죠?</t>
+  </si>
+  <si>
+    <t>군것질을 하고 싶어</t>
+  </si>
+  <si>
+    <t>입이 심심해</t>
+  </si>
+  <si>
+    <t>군것질을 해요</t>
+  </si>
+  <si>
+    <t>너는 꿈이 뭐야?</t>
+  </si>
+  <si>
+    <t>사용자님을 금연성공 시켜드리는 것입니다.</t>
+  </si>
+  <si>
+    <t>어이</t>
+  </si>
+  <si>
+    <t>응?</t>
+  </si>
+  <si>
+    <t>헤이</t>
+  </si>
+  <si>
+    <t>하이</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>안녕하세요</t>
+  </si>
+  <si>
+    <t>목말라</t>
+  </si>
+  <si>
+    <t>마트가서 과자나 사오죠? 군침이 싹도네요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물을 마셔봐요</t>
+  </si>
+  <si>
+    <t>술먹고싶네</t>
+  </si>
+  <si>
+    <t>복분자주를 마셔봐요 맛있더라고요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오이오이</t>
+  </si>
+  <si>
+    <t>금연 그만하고싶어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의사소통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러면 군침이 싹 돌수가 없어요!! 금연 계속 하죠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나 금연 성공할 수 있을까?</t>
+  </si>
+  <si>
+    <t>당연하죠!!</t>
+  </si>
+  <si>
+    <t>///-----------------------------------------------------</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너는 취미가 뭐니?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저의 취미는 명상이랍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>놀아줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한번사는 인생 그냥 쉬죠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피곤하면 주무세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너 사람이지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1153,6 +1423,13 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="새굴림"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1204,7 +1481,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1233,6 +1510,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1555,12 +1835,12 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="2" width="33.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1570,7 +1850,7 @@
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1584,7 +1864,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="3" t="s">
@@ -1600,7 +1880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1612,7 +1892,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -1624,7 +1904,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6">
       <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
@@ -1636,7 +1916,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>14</v>
@@ -1646,7 +1926,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>15</v>
@@ -1656,7 +1936,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>16</v>
@@ -1666,7 +1946,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>17</v>
@@ -1676,7 +1956,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -1688,7 +1968,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
@@ -1721,13 +2001,13 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="18.19921875" customWidth="1"/>
     <col min="3" max="3" width="44.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1738,130 +2018,130 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="48" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="74.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="74.25" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="58.5" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="77.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="77.25" customHeight="1">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1875,16 +2155,16 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="28.19921875" customWidth="1"/>
     <col min="3" max="3" width="66.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1895,114 +2175,114 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="52.2">
       <c r="A2" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="57" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="81" customHeight="1" x14ac:dyDescent="0.4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="81" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="54" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="32.25" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="92.25" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="90.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="90.75" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="54" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="33" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="33" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="33" customHeight="1">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="56.25" customHeight="1">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2016,16 +2296,16 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="27.8984375" customWidth="1"/>
     <col min="3" max="3" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -2036,36 +2316,36 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="156.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="156.75" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2081,16 +2361,16 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A9" sqref="A9:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="32.19921875" customWidth="1"/>
     <col min="3" max="3" width="47.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -2101,88 +2381,88 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="47.25" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="58.5" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="78" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="55.5" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3">
       <c r="A11" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2201,14 +2481,14 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="41.09765625" customWidth="1"/>
     <col min="2" max="2" width="19.8984375" customWidth="1"/>
     <col min="3" max="3" width="52.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -2219,169 +2499,169 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="6" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C3" s="6" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="6" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="6" t="s">
+    <row r="8" spans="1:3" ht="52.2">
+      <c r="A8" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="6" t="s">
+    <row r="9" spans="1:3" ht="34.799999999999997">
+      <c r="A9" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+      <c r="C9" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C8" s="7" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="34.799999999999997">
+      <c r="A10" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+      <c r="C10" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C9" s="7" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="69.75" customHeight="1">
+      <c r="A11" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+      <c r="C11" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C10" s="7" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="45" customHeight="1">
+      <c r="A12" s="6" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="69.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+      <c r="C12" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C11" s="7" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="34.799999999999997">
+      <c r="A13" s="6" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C12" s="7" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="6" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A13" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="C13" s="7" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="52.2">
+      <c r="A15" s="6" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="C14" s="7" t="s">
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="6" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A15" s="6" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C15" s="7" t="s">
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="6" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="6" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="6" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" s="6" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" s="6" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="6" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" s="6" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="6" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21" s="6" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="6" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A22" s="6" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="6" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A23" s="6" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="6" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A24" s="6" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A25" s="6" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A26" s="6" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2398,12 +2678,12 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -2414,12 +2694,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -2436,12 +2716,12 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="37.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -2452,27 +2732,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>220</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -2485,17 +2765,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B72C6A2-192D-410A-A993-D4F0FEA7F3EC}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="39.8984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -2506,27 +2786,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="390.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="390.6" customHeight="1">
       <c r="A2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="5" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>226</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2540,16 +2820,16 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -2560,17 +2840,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="295.8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="295.8">
       <c r="A2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2581,19 +2861,19 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D93F14FE-7391-4400-A7EA-6F5A446B4F96}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A5" sqref="A5:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="25.5" customWidth="1"/>
     <col min="3" max="3" width="36.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -2604,37 +2884,37 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>233</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -2654,13 +2934,13 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -2671,7 +2951,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -2679,7 +2959,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -2687,7 +2967,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -2695,7 +2975,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -2703,7 +2983,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -2711,17 +2991,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -2740,13 +3020,13 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="31.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -2757,17 +3037,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -2784,13 +3064,13 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="24.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -2801,47 +3081,47 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>243</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>248</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -2858,13 +3138,13 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="20.8984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -2875,25 +3155,25 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" t="s">
         <v>252</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="C4" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C4" t="s">
-        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -2910,13 +3190,13 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="28.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -2927,25 +3207,25 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" t="s">
         <v>257</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>258</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -2962,12 +3242,12 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -2978,22 +3258,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>262</v>
-      </c>
-      <c r="C2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -3010,13 +3290,13 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -3027,17 +3307,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -3051,15 +3331,15 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="D3" sqref="D3:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -3070,25 +3350,25 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C3" t="s">
         <v>269</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>270</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -3102,16 +3382,16 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="27.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -3122,22 +3402,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>274</v>
-      </c>
-      <c r="C2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -3151,15 +3431,15 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="19.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -3170,22 +3450,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>278</v>
-      </c>
-      <c r="C2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -3196,55 +3476,71 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF5A298-0EEE-4772-AE38-F0DCE85EF96C}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="20.8984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>23</v>
+        <v>279</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+        <v>280</v>
+      </c>
+      <c r="D1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>282</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>284</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>286</v>
+        <v>279</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" t="s">
         <v>286</v>
       </c>
     </row>
@@ -3261,13 +3557,13 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -3278,7 +3574,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -3286,7 +3582,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -3294,32 +3590,32 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -3332,48 +3628,552 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A2179F-AD5B-4662-9ABB-5508C19F0572}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="C1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="25.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>23</v>
-      </c>
+    <row r="1" spans="3:4">
       <c r="C1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D1" t="s">
         <v>288</v>
       </c>
+    </row>
+    <row r="2" spans="3:4">
       <c r="C2" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="D2" t="s">
         <v>290</v>
       </c>
+    </row>
+    <row r="3" spans="3:4">
       <c r="C3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCF7216-8629-4524-A2A2-6CD1D8FA6DFE}">
+  <dimension ref="A1:E35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>292</v>
+        <v>293</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>293</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="34.799999999999997">
+      <c r="A7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>312</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>316</v>
+      </c>
+      <c r="D8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>332</v>
+      </c>
+      <c r="D10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>293</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>360</v>
+      </c>
+      <c r="D11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>293</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>293</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>324</v>
+      </c>
+      <c r="D13" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>293</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>323</v>
+      </c>
+      <c r="D14" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>293</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>363</v>
+      </c>
+      <c r="D15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>293</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>317</v>
+      </c>
+      <c r="D16" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>293</v>
+      </c>
+      <c r="B17">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>313</v>
+      </c>
+      <c r="D17" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>293</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D18" t="s">
+        <v>311</v>
+      </c>
+      <c r="E18" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>293</v>
+      </c>
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>308</v>
+      </c>
+      <c r="D19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>293</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>304</v>
+      </c>
+      <c r="D20" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>293</v>
+      </c>
+      <c r="B21">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>297</v>
+      </c>
+      <c r="D21" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>293</v>
+      </c>
+      <c r="B22">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>352</v>
+      </c>
+      <c r="D22" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>293</v>
+      </c>
+      <c r="B23">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>351</v>
+      </c>
+      <c r="D23">
+        <v>5252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>293</v>
+      </c>
+      <c r="B24">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>349</v>
+      </c>
+      <c r="D24" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>293</v>
+      </c>
+      <c r="B25">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>346</v>
+      </c>
+      <c r="D25" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>293</v>
+      </c>
+      <c r="B26">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>344</v>
+      </c>
+      <c r="D26" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>293</v>
+      </c>
+      <c r="B27">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>342</v>
+      </c>
+      <c r="D27" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>293</v>
+      </c>
+      <c r="B28">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>340</v>
+      </c>
+      <c r="D28" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>293</v>
+      </c>
+      <c r="B29">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>338</v>
+      </c>
+      <c r="D29" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>293</v>
+      </c>
+      <c r="B30">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>336</v>
+      </c>
+      <c r="D30" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>293</v>
+      </c>
+      <c r="B31">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>335</v>
+      </c>
+      <c r="D31" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>293</v>
+      </c>
+      <c r="B32">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>333</v>
+      </c>
+      <c r="D32" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>293</v>
+      </c>
+      <c r="B33">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>329</v>
+      </c>
+      <c r="D33" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>293</v>
+      </c>
+      <c r="B34">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>327</v>
+      </c>
+      <c r="D34" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>353</v>
+      </c>
+      <c r="B35">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>355</v>
+      </c>
+      <c r="D35" t="s">
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -3390,16 +4190,16 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="29.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -3410,7 +4210,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="261" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="261">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -3418,12 +4218,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -3439,19 +4239,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3014A925-44B5-4A6A-BE47-173E9D4D8771}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="22.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -3462,7 +4262,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -3470,67 +4270,56 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C7" s="10" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>64</v>
-      </c>
+      <c r="C10" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C7:C10"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3538,194 +4327,299 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59AFB52-B59F-488A-9C76-991BE3B80770}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="29.19921875" customWidth="1"/>
-    <col min="3" max="3" width="27.19921875" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="30.19921875" customWidth="1"/>
+    <col min="5" max="5" width="24.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="155.25" customHeight="1">
       <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="158.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="141.75" customHeight="1">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="163.5" customHeight="1">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="175.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="105" customHeight="1">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="195.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="115.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="75" customHeight="1">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="26.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="6" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="6" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="6" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="6" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="6" t="s">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="6" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="6" t="s">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="6" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="6" t="s">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="6" t="s">
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="6" t="s">
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="6" t="s">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="6" t="s">
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="6" t="s">
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3737,17 +4631,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC61490-201F-4CA5-942B-F3E8674F7C21}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="18.3984375" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -3758,45 +4652,45 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="82.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="82.5" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="98.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="98.25" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="243.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="243.75" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="60.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="60.75" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -3815,13 +4709,13 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="26.19921875" customWidth="1"/>
     <col min="3" max="3" width="43.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -3832,41 +4726,41 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -3885,13 +4779,13 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="28.19921875" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -3902,27 +4796,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="84" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="84" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="93.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="93.75" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
